--- a/data/analysoitu_otanta.xlsx
+++ b/data/analysoitu_otanta.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="818">
   <si>
     <t xml:space="preserve">sentence</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">group</t>
   </si>
   <si>
+    <t xml:space="preserve">side</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asumisen hoidin vaihtareille tarkoitetun OeAD-järjestön kautta.</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t xml:space="preserve">Listamaiset</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yliopisto lähetti minulle hyvissä ajoin asuntotarjouksen.</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=558</t>
   </si>
   <si>
+    <t xml:space="preserve">otsikko</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rupesin hyvissä ajoin kyselemään asuntoa asunnonvälittäjä Wendyltä.</t>
   </si>
   <si>
@@ -386,6 +395,9 @@
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=266</t>
   </si>
   <si>
+    <t xml:space="preserve">check</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ensimmäiseksi neljäksi yöksi olin hankkinut huoneen Airbnb:stä, mutta pysyvän asunnon hommasin vasta saavuttuani paikan päälle.</t>
   </si>
   <si>
@@ -476,6 +488,9 @@
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=272</t>
   </si>
   <si>
+    <t xml:space="preserve">edellinen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hankin asunnon yksityisiltä markkinoilta.</t>
   </si>
   <si>
@@ -929,6 +944,9 @@
     <t xml:space="preserve">https://puolukka.uta.fi/jhout/analyzer/index.php?id=850</t>
   </si>
   <si>
+    <t xml:space="preserve">orient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suurinosa vaihtareista asuu guest houseissa, jotka vapautuvat turistikauden päätyttyä 1.9.</t>
   </si>
   <si>
@@ -966,6 +984,9 @@
   </si>
   <si>
     <t xml:space="preserve">Linkki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linkki</t>
   </si>
   <si>
     <t xml:space="preserve">Asuin suomalaisen ystäväni kanssa kampuksella yliopiston asuntolassa eli dormissa.</t>
@@ -2819,811 +2840,871 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
         <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
         <v>639</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="n">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
         <v>711</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
         <v>565</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
         <v>254</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
         <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
         <v>558</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" t="n">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
         <v>459</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="n">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
         <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="n">
         <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
         <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" t="n">
         <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
         <v>732</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="n">
         <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
         <v>438</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" t="n">
         <v>206</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
         <v>720</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
         <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
         <v>395</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14" t="n">
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
         <v>493</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L15" t="n">
         <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
         <v>544</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" t="n">
         <v>85</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L17" t="n">
         <v>183</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
         <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
         <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L19" t="n">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
         <v>476</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" t="n">
         <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N20" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -3631,39 +3712,42 @@
         <v>490</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" t="n">
         <v>103</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -3671,39 +3755,42 @@
         <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" t="n">
         <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -3711,39 +3798,42 @@
         <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L23" t="n">
         <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -3751,39 +3841,42 @@
         <v>764</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" t="n">
         <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -3791,39 +3884,42 @@
         <v>272</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L25" t="n">
         <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3831,39 +3927,42 @@
         <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" t="n">
         <v>133</v>
       </c>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N26" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -3871,39 +3970,42 @@
         <v>473</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" t="n">
         <v>166</v>
       </c>
       <c r="M27" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3911,39 +4013,42 @@
         <v>670</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L28" t="n">
         <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -3951,39 +4056,42 @@
         <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" t="n">
         <v>141</v>
       </c>
       <c r="M29" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N29" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -3991,39 +4099,42 @@
         <v>361</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L30" t="n">
         <v>122</v>
       </c>
       <c r="M30" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N30" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -4031,39 +4142,42 @@
         <v>590</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L31" t="n">
         <v>285</v>
       </c>
       <c r="M31" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -4071,39 +4185,42 @@
         <v>710</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L32" t="n">
         <v>106</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -4111,39 +4228,42 @@
         <v>697</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" t="n">
         <v>156</v>
       </c>
       <c r="M33" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N33" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -4151,39 +4271,42 @@
         <v>627</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L34" t="n">
         <v>98</v>
       </c>
       <c r="M34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -4191,39 +4314,42 @@
         <v>785</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L35" t="n">
         <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N35" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4231,39 +4357,42 @@
         <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L36" t="n">
         <v>98</v>
       </c>
       <c r="M36" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4271,39 +4400,42 @@
         <v>769</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L37" t="n">
         <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4311,39 +4443,42 @@
         <v>810</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L38" t="n">
         <v>68</v>
       </c>
       <c r="M38" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -4351,39 +4486,42 @@
         <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L39" t="n">
         <v>127</v>
       </c>
       <c r="M39" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N39" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -4391,39 +4529,42 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L40" t="n">
         <v>9</v>
       </c>
       <c r="M40" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -4431,39 +4572,42 @@
         <v>226</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L41" t="n">
         <v>135</v>
       </c>
       <c r="M41" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4471,39 +4615,42 @@
         <v>676</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L42" t="n">
         <v>156</v>
       </c>
       <c r="M42" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N42" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4511,39 +4658,42 @@
         <v>314</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L43" t="n">
         <v>81</v>
       </c>
       <c r="M43" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N43" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -4551,39 +4701,42 @@
         <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L44" t="n">
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O44" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -4591,39 +4744,42 @@
         <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L45" t="n">
         <v>48</v>
       </c>
       <c r="M45" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="N45" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -4631,39 +4787,42 @@
         <v>625</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L46" t="n">
         <v>163</v>
       </c>
       <c r="M46" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N46" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -4671,39 +4830,42 @@
         <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L47" t="n">
         <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -4711,39 +4873,42 @@
         <v>767</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H48" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L48" t="n">
         <v>79</v>
       </c>
       <c r="M48" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N48" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="O48" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -4751,39 +4916,42 @@
         <v>387</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L49" t="n">
         <v>64</v>
       </c>
       <c r="M49" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N49" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -4791,39 +4959,42 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
+        <v>277</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
         <v>272</v>
       </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" t="s">
-        <v>267</v>
-      </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L50" t="n">
         <v>119</v>
       </c>
       <c r="M50" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N50" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -4831,39 +5002,42 @@
         <v>620</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L51" t="n">
         <v>31</v>
       </c>
       <c r="M51" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N51" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -4871,39 +5045,42 @@
         <v>306</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L52" t="n">
         <v>36</v>
       </c>
       <c r="M52" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N52" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O52" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -4911,39 +5088,42 @@
         <v>378</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" t="n">
         <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N53" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -4951,39 +5131,42 @@
         <v>859</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L54" t="n">
         <v>77</v>
       </c>
       <c r="M54" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N54" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -4991,39 +5174,42 @@
         <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L55" t="n">
         <v>83</v>
       </c>
       <c r="M55" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N55" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O55" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -5031,39 +5217,42 @@
         <v>835</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L56" t="n">
         <v>116</v>
       </c>
       <c r="M56" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N56" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O56" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -5071,39 +5260,42 @@
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L57" t="n">
         <v>61</v>
       </c>
       <c r="M57" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N57" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O57" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -5111,39 +5303,42 @@
         <v>850</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" t="n">
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="N58" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O58" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -5151,39 +5346,42 @@
         <v>260</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L59" t="n">
         <v>163</v>
       </c>
       <c r="M59" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N59" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -5191,37 +5389,40 @@
         <v>569</v>
       </c>
       <c r="F60" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L60" t="n">
         <v>60</v>
       </c>
       <c r="M60" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -5229,39 +5430,42 @@
         <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L61" t="n">
         <v>162</v>
       </c>
       <c r="M61" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N61" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O61" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -5269,39 +5473,42 @@
         <v>434</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L62" t="n">
         <v>127</v>
       </c>
       <c r="M62" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="N62" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O62" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -5309,39 +5516,42 @@
         <v>409</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L63" t="n">
         <v>40</v>
       </c>
       <c r="M63" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N63" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O63" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -5349,16 +5559,16 @@
         <v>302</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -5366,18 +5576,21 @@
         <v>83</v>
       </c>
       <c r="M64" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="N64" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -5385,39 +5598,42 @@
         <v>699</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L65" t="n">
         <v>93</v>
       </c>
       <c r="M65" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N65" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -5425,16 +5641,16 @@
         <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -5442,18 +5658,21 @@
         <v>51</v>
       </c>
       <c r="M66" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N66" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O66" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -5461,39 +5680,42 @@
         <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L67" t="n">
         <v>125</v>
       </c>
       <c r="M67" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N67" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O67" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -5501,39 +5723,42 @@
         <v>829</v>
       </c>
       <c r="F68" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L68" t="n">
         <v>53</v>
       </c>
       <c r="M68" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N68" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -5541,39 +5766,42 @@
         <v>754</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L69" t="n">
         <v>122</v>
       </c>
       <c r="M69" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N69" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O69" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -5581,39 +5809,42 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L70" t="n">
         <v>6</v>
       </c>
       <c r="M70" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N70" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -5621,39 +5852,42 @@
         <v>752</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L71" t="n">
         <v>188</v>
       </c>
       <c r="M71" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N71" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O71" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -5661,39 +5895,42 @@
         <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L72" t="n">
         <v>86</v>
       </c>
       <c r="M72" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N72" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O72" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -5701,39 +5938,42 @@
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L73" t="n">
         <v>77</v>
       </c>
       <c r="M73" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="N73" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -5741,39 +5981,42 @@
         <v>812</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L74" t="n">
         <v>104</v>
       </c>
       <c r="M74" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N74" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O74" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -5781,39 +6024,42 @@
         <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L75" t="n">
         <v>149</v>
       </c>
       <c r="M75" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="N75" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -5821,39 +6067,42 @@
         <v>557</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L76" t="n">
         <v>97</v>
       </c>
       <c r="M76" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N76" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -5861,37 +6110,40 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L77" t="n">
         <v>8</v>
       </c>
       <c r="M77" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N77" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B78" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -5899,39 +6151,42 @@
         <v>688</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L78" t="n">
         <v>74</v>
       </c>
       <c r="M78" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="N78" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O78" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -5939,39 +6194,42 @@
         <v>405</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I79" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J79" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L79" t="n">
         <v>154</v>
       </c>
       <c r="M79" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="N79" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -5979,39 +6237,42 @@
         <v>692</v>
       </c>
       <c r="F80" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H80" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="I80" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J80" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L80" t="n">
         <v>81</v>
       </c>
       <c r="M80" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="N80" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -6019,39 +6280,42 @@
         <v>525</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H81" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="I81" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L81" t="n">
         <v>93</v>
       </c>
       <c r="M81" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="N81" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O81" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B82" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -6059,39 +6323,42 @@
         <v>79</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H82" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="I82" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J82" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L82" t="n">
         <v>190</v>
       </c>
       <c r="M82" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N82" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O82" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B83" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -6099,39 +6366,42 @@
         <v>225</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J83" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L83" t="n">
         <v>167</v>
       </c>
       <c r="M83" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N83" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O83" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -6139,39 +6409,42 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H84" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="I84" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J84" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K84" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L84" t="n">
         <v>225</v>
       </c>
       <c r="M84" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="N84" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O84" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B85" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -6179,39 +6452,42 @@
         <v>844</v>
       </c>
       <c r="F85" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G85" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H85" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I85" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J85" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L85" t="n">
         <v>97</v>
       </c>
       <c r="M85" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="N85" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B86" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -6219,39 +6495,42 @@
         <v>334</v>
       </c>
       <c r="F86" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G86" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I86" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J86" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L86" t="n">
         <v>10</v>
       </c>
       <c r="M86" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="N86" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -6259,39 +6538,42 @@
         <v>694</v>
       </c>
       <c r="F87" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="G87" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I87" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J87" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L87" t="n">
         <v>95</v>
       </c>
       <c r="M87" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="N87" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -6299,39 +6581,42 @@
         <v>286</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H88" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="I88" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J88" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L88" t="n">
         <v>36</v>
       </c>
       <c r="M88" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="N88" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O88" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B89" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -6339,39 +6624,42 @@
         <v>391</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H89" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I89" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J89" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L89" t="n">
         <v>79</v>
       </c>
       <c r="M89" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="N89" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O89" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B90" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -6379,16 +6667,16 @@
         <v>298</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -6396,18 +6684,21 @@
         <v>70</v>
       </c>
       <c r="M90" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N90" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="O90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B91" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -6415,39 +6706,42 @@
         <v>375</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H91" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I91" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J91" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L91" t="n">
         <v>164</v>
       </c>
       <c r="M91" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="N91" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O91" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B92" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -6455,39 +6749,42 @@
         <v>831</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I92" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J92" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L92" t="n">
         <v>37</v>
       </c>
       <c r="M92" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="N92" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="O92" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -6495,39 +6792,42 @@
         <v>624</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I93" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J93" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L93" t="n">
         <v>135</v>
       </c>
       <c r="M93" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="N93" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O93" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B94" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -6535,39 +6835,42 @@
         <v>722</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I94" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J94" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L94" t="n">
         <v>3</v>
       </c>
       <c r="M94" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="N94" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O94" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B95" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
@@ -6575,39 +6878,42 @@
         <v>532</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G95" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H95" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="I95" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J95" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L95" t="n">
         <v>69</v>
       </c>
       <c r="M95" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="N95" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B96" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -6615,39 +6921,42 @@
         <v>774</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I96" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J96" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L96" t="n">
         <v>123</v>
       </c>
       <c r="M96" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N96" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O96" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B97" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -6655,39 +6964,42 @@
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I97" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J97" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L97" t="n">
         <v>185</v>
       </c>
       <c r="M97" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N97" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O97" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B98" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -6695,39 +7007,42 @@
         <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="H98" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="I98" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J98" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L98" t="n">
         <v>146</v>
       </c>
       <c r="M98" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="N98" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O98" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B99" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
@@ -6735,39 +7050,42 @@
         <v>399</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I99" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J99" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L99" t="n">
         <v>38</v>
       </c>
       <c r="M99" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N99" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O99" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B100" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -6775,39 +7093,42 @@
         <v>126</v>
       </c>
       <c r="F100" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G100" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H100" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="I100" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J100" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L100" t="n">
         <v>56</v>
       </c>
       <c r="M100" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N100" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O100" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
@@ -6815,39 +7136,42 @@
         <v>317</v>
       </c>
       <c r="F101" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="G101" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I101" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J101" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L101" t="n">
         <v>62</v>
       </c>
       <c r="M101" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N101" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B102" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
@@ -6855,39 +7179,42 @@
         <v>839</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H102" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I102" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J102" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L102" t="n">
         <v>87</v>
       </c>
       <c r="M102" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="N102" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O102" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
@@ -6895,39 +7222,42 @@
         <v>731</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H103" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="I103" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J103" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L103" t="n">
         <v>57</v>
       </c>
       <c r="M103" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="N103" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O103" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B104" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C104"/>
       <c r="D104"/>
@@ -6935,39 +7265,42 @@
         <v>517</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I104" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J104" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L104" t="n">
         <v>164</v>
       </c>
       <c r="M104" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="N104" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O104" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B105" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -6975,39 +7308,42 @@
         <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I105" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J105" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L105" t="n">
         <v>143</v>
       </c>
       <c r="M105" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="N105" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="O105" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B106" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -7015,39 +7351,42 @@
         <v>535</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I106" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J106" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="K106" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L106" t="n">
         <v>78</v>
       </c>
       <c r="M106" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="N106" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O106" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B107" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -7055,39 +7394,42 @@
         <v>650</v>
       </c>
       <c r="F107" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H107" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="I107" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L107" t="n">
         <v>100</v>
       </c>
       <c r="M107" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="N107" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B108" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -7095,39 +7437,42 @@
         <v>449</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I108" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J108" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="K108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L108" t="n">
         <v>5</v>
       </c>
       <c r="M108" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="N108" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O108" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
@@ -7135,39 +7480,42 @@
         <v>743</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I109" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J109" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L109" t="n">
         <v>71</v>
       </c>
       <c r="M109" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="N109" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O109" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B110" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -7175,39 +7523,42 @@
         <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="G110" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I110" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J110" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L110" t="n">
         <v>71</v>
       </c>
       <c r="M110" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="N110" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O110" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B111" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -7215,39 +7566,42 @@
         <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I111" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L111" t="n">
         <v>156</v>
       </c>
       <c r="M111" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="N111" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O111" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B112" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -7255,39 +7609,42 @@
         <v>595</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="H112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I112" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J112" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="K112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L112" t="n">
         <v>61</v>
       </c>
       <c r="M112" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="N112" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O112" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B113" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -7295,39 +7652,42 @@
         <v>632</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="H113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J113" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L113" t="n">
         <v>76</v>
       </c>
       <c r="M113" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="N113" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O113" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B114" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
@@ -7335,39 +7695,42 @@
         <v>717</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="H114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I114" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J114" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L114" t="n">
         <v>169</v>
       </c>
       <c r="M114" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="N114" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O114" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B115" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -7375,39 +7738,42 @@
         <v>494</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J115" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="K115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L115" t="n">
         <v>5</v>
       </c>
       <c r="M115" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="N115" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O115" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B116" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
@@ -7415,39 +7781,42 @@
         <v>292</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I116" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J116" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="K116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L116" t="n">
         <v>66</v>
       </c>
       <c r="M116" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="N116" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O116" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B117" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
@@ -7455,39 +7824,42 @@
         <v>135</v>
       </c>
       <c r="F117" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="G117" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I117" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J117" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L117" t="n">
         <v>79</v>
       </c>
       <c r="M117" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="N117" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O117" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B118" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
@@ -7495,16 +7867,16 @@
         <v>860</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="H118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I118" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -7512,18 +7884,21 @@
         <v>43</v>
       </c>
       <c r="M118" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="N118" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="O118" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B119" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -7531,39 +7906,42 @@
         <v>474</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="H119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I119" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J119" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="K119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L119" t="n">
         <v>103</v>
       </c>
       <c r="M119" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="N119" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O119" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B120" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
@@ -7571,39 +7949,42 @@
         <v>455</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="H120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I120" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J120" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="K120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L120" t="n">
         <v>96</v>
       </c>
       <c r="M120" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="N120" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O120" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C121"/>
       <c r="D121"/>
@@ -7611,39 +7992,42 @@
         <v>369</v>
       </c>
       <c r="F121" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="H121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I121" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J121" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="K121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L121" t="n">
         <v>53</v>
       </c>
       <c r="M121" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="N121" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O121" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B122" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -7651,39 +8035,42 @@
         <v>606</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="H122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I122" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J122" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L122" t="n">
         <v>133</v>
       </c>
       <c r="M122" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="N122" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="O122" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B123" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -7691,39 +8078,42 @@
         <v>441</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I123" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J123" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L123" t="n">
         <v>61</v>
       </c>
       <c r="M123" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="N123" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O123" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B124" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -7731,39 +8121,42 @@
         <v>863</v>
       </c>
       <c r="F124" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G124" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I124" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J124" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="K124" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L124" t="n">
         <v>47</v>
       </c>
       <c r="M124" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="N124" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O124" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B125" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -7771,39 +8164,42 @@
         <v>498</v>
       </c>
       <c r="F125" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G125" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I125" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J125" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L125" t="n">
         <v>50</v>
       </c>
       <c r="M125" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="N125" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="O125" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B126" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -7811,39 +8207,42 @@
         <v>559</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="H126" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I126" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J126" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L126" t="n">
         <v>129</v>
       </c>
       <c r="M126" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="N126" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O126" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B127" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
@@ -7851,39 +8250,42 @@
         <v>200</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="H127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I127" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J127" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="K127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L127" t="n">
         <v>204</v>
       </c>
       <c r="M127" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="N127" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O127" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B128" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -7891,39 +8293,42 @@
         <v>422</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I128" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J128" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L128" t="n">
         <v>21</v>
       </c>
       <c r="M128" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="N128" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O128" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B129" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -7931,39 +8336,42 @@
         <v>430</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="H129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I129" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J129" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K129" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L129" t="n">
         <v>98</v>
       </c>
       <c r="M129" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="N129" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O129" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B130" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -7971,39 +8379,42 @@
         <v>84</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I130" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J130" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L130" t="n">
         <v>65</v>
       </c>
       <c r="M130" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="N130" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O130" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B131" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -8011,39 +8422,42 @@
         <v>125</v>
       </c>
       <c r="F131" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G131" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I131" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J131" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L131" t="n">
         <v>31</v>
       </c>
       <c r="M131" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="N131" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O131" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B132" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -8051,39 +8465,42 @@
         <v>100</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I132" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J132" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L132" t="n">
         <v>61</v>
       </c>
       <c r="M132" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="N132" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O132" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B133" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -8091,39 +8508,42 @@
         <v>147</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="H133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J133" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L133" t="n">
         <v>16</v>
       </c>
       <c r="M133" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="N133" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O133" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B134" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -8131,39 +8551,42 @@
         <v>811</v>
       </c>
       <c r="F134" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H134" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I134" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J134" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L134" t="n">
         <v>86</v>
       </c>
       <c r="M134" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="N134" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O134" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B135" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -8171,39 +8594,42 @@
         <v>691</v>
       </c>
       <c r="F135" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G135" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="H135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I135" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J135" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L135" t="n">
         <v>76</v>
       </c>
       <c r="M135" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="N135" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O135" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B136" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -8211,39 +8637,42 @@
         <v>390</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I136" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J136" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="K136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L136" t="n">
         <v>99</v>
       </c>
       <c r="M136" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="N136" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O136" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="B137" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -8251,39 +8680,42 @@
         <v>666</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="H137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I137" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J137" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L137" t="n">
         <v>74</v>
       </c>
       <c r="M137" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="N137" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O137" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B138" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
@@ -8291,39 +8723,42 @@
         <v>618</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="H138" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="I138" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J138" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L138" t="n">
         <v>85</v>
       </c>
       <c r="M138" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="N138" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O138" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
@@ -8331,39 +8766,42 @@
         <v>448</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="H139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I139" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L139" t="n">
         <v>59</v>
       </c>
       <c r="M139" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="N139" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O139" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="B140" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
@@ -8371,39 +8809,42 @@
         <v>51</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I140" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J140" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L140" t="n">
         <v>112</v>
       </c>
       <c r="M140" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="N140" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="O140" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B141" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -8411,39 +8852,42 @@
         <v>619</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="H141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I141" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J141" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L141" t="n">
         <v>162</v>
       </c>
       <c r="M141" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="N141" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O141" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B142" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -8451,39 +8895,42 @@
         <v>703</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I142" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J142" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L142" t="n">
         <v>87</v>
       </c>
       <c r="M142" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="N142" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O142" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B143" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -8491,39 +8938,42 @@
         <v>645</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="H143" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="I143" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J143" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L143" t="n">
         <v>58</v>
       </c>
       <c r="M143" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="N143" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O143" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B144" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -8531,39 +8981,42 @@
         <v>119</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="H144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I144" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J144" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L144" t="n">
         <v>100</v>
       </c>
       <c r="M144" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="N144" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O144" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="B145" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
@@ -8571,16 +9024,16 @@
         <v>106</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="H145" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I145" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J145"/>
       <c r="K145"/>
@@ -8588,18 +9041,21 @@
         <v>210</v>
       </c>
       <c r="M145" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="N145" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="O145" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B146" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
@@ -8607,39 +9063,42 @@
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="H146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I146" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J146" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L146" t="n">
         <v>73</v>
       </c>
       <c r="M146" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="N146" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O146" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B147" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
@@ -8647,39 +9106,42 @@
         <v>760</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="H147" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J147" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L147" t="n">
         <v>102</v>
       </c>
       <c r="M147" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="N147" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O147" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B148" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
@@ -8687,39 +9149,42 @@
         <v>318</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="H148" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I148" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J148" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="K148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L148" t="n">
         <v>165</v>
       </c>
       <c r="M148" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="N148" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O148" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B149" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -8727,39 +9192,42 @@
         <v>802</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="H149" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I149" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J149" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L149" t="n">
         <v>93</v>
       </c>
       <c r="M149" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="N149" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O149" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B150" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -8767,39 +9235,42 @@
         <v>693</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="H150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I150" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J150" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="K150" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L150" t="n">
         <v>177</v>
       </c>
       <c r="M150" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="N150" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O150" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B151" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -8807,39 +9278,42 @@
         <v>26</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="H151" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="I151" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J151" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="K151" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L151" t="n">
         <v>8</v>
       </c>
       <c r="M151" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="N151" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O151" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B152" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
@@ -8847,39 +9321,42 @@
         <v>85</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I152" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J152" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L152" t="n">
         <v>60</v>
       </c>
       <c r="M152" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="N152" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O152" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="B153" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -8887,39 +9364,42 @@
         <v>341</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G153" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I153" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J153" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="K153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L153" t="n">
         <v>80</v>
       </c>
       <c r="M153" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="N153" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O153" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B154" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -8927,39 +9407,42 @@
         <v>817</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I154" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J154" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L154" t="n">
         <v>59</v>
       </c>
       <c r="M154" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="N154" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O154" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B155" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
@@ -8967,39 +9450,42 @@
         <v>224</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="H155" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="I155" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J155" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="K155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L155" t="n">
         <v>127</v>
       </c>
       <c r="M155" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="N155" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O155" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B156" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
@@ -9007,39 +9493,42 @@
         <v>807</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="H156" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I156" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J156" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="K156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L156" t="n">
         <v>192</v>
       </c>
       <c r="M156" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="N156" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O156" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B157" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -9047,39 +9536,42 @@
         <v>534</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="H157" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I157" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J157" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L157" t="n">
         <v>133</v>
       </c>
       <c r="M157" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="N157" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O157" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B158" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -9087,39 +9579,42 @@
         <v>76</v>
       </c>
       <c r="F158" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G158" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="H158" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I158" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J158" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="K158" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L158" t="n">
         <v>14</v>
       </c>
       <c r="M158" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="N158" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O158" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B159" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
@@ -9127,39 +9622,42 @@
         <v>806</v>
       </c>
       <c r="F159" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="G159" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="H159" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I159" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J159" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="K159" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L159" t="n">
         <v>211</v>
       </c>
       <c r="M159" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="N159" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="O159" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B160" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -9167,39 +9665,42 @@
         <v>345</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="H160" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I160" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J160" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="K160" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L160" t="n">
         <v>106</v>
       </c>
       <c r="M160" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="N160" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O160" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B161" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -9207,39 +9708,42 @@
         <v>385</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I161" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J161" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="K161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L161" t="n">
         <v>136</v>
       </c>
       <c r="M161" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="N161" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O161" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B162" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
@@ -9247,39 +9751,42 @@
         <v>435</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I162" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J162" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L162" t="n">
         <v>114</v>
       </c>
       <c r="M162" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="N162" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="O162" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B163" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -9287,39 +9794,42 @@
         <v>363</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="H163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I163" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J163" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L163" t="n">
         <v>78</v>
       </c>
       <c r="M163" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="N163" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O163" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B164" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -9327,39 +9837,42 @@
         <v>263</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="H164" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="I164" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J164" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K164" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L164" t="n">
         <v>162</v>
       </c>
       <c r="M164" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="N164" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="O164" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="B165" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
@@ -9367,16 +9880,16 @@
         <v>838</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I165" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J165"/>
       <c r="K165"/>
@@ -9384,18 +9897,21 @@
         <v>208</v>
       </c>
       <c r="M165" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="N165" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="O165" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B166" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
@@ -9403,39 +9919,42 @@
         <v>674</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="H166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J166" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="K166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L166" t="n">
         <v>137</v>
       </c>
       <c r="M166" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="N166" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="O166" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B167" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -9443,39 +9962,42 @@
         <v>204</v>
       </c>
       <c r="F167" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G167" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="H167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I167" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J167" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="K167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L167" t="n">
         <v>82</v>
       </c>
       <c r="M167" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="N167" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="O167" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B168" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C168"/>
       <c r="D168"/>
@@ -9483,39 +10005,42 @@
         <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G168" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="H168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I168" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J168" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L168" t="n">
         <v>59</v>
       </c>
       <c r="M168" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="N168" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="O168" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B169" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="C169"/>
       <c r="D169"/>
@@ -9523,31 +10048,34 @@
         <v>519</v>
       </c>
       <c r="F169" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G169" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="H169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I169" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J169" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="K169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L169" t="n">
         <v>104</v>
       </c>
       <c r="M169" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="N169" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="O169" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
